--- a/Node/webScrapping/espn_scrapper/IPL/Delhi Capitals/Krunal Pandya .xlsx
+++ b/Node/webScrapping/espn_scrapper/IPL/Delhi Capitals/Krunal Pandya .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,44 +472,9 @@
         <v>171.42</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v xml:space="preserve"> Nov 10 2020</v>
-      </c>
-      <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Mumbai won by 5 wickets (with 8 balls remaining)</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Mumbai Indians</v>
-      </c>
-      <c r="F3" t="str">
-        <v xml:space="preserve">Krunal Pandya </v>
-      </c>
-      <c r="G3" t="str">
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <v>0</v>
-      </c>
-      <c r="K3" t="str">
-        <v>100.00</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>